--- a/data/IEEE9/Market Data/ieee9_market_data_base.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\Market Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F3ED56-0F08-420E-B2F0-49BA05173350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210BF301-6EA8-418B-8A94-6CE9F3F4E54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22575" yWindow="5325" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="69675" yWindow="-8400" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -386,15 +386,15 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -402,7 +402,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -410,15 +410,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -439,9 +439,9 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +518,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -619,7 +619,7 @@
         <v>42.69</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -696,7 +696,7 @@
         <v>41.71</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -773,7 +773,7 @@
         <v>43.67</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -799,7 +799,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -825,7 +825,7 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -865,9 +865,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -944,7 +944,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>48.115416666666654</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>44.000416666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1260,9 +1260,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>38.14</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1584,9 +1584,9 @@
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>37.574999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>42.067083333333329</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
